--- a/files/カテゴリリスト.xlsx
+++ b/files/カテゴリリスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>SBプレスリリース</t>
   </si>
@@ -71,58 +71,7 @@
     <t>その他</t>
   </si>
   <si>
-    <t>sbpress.png</t>
-  </si>
-  <si>
-    <t>competitor.png</t>
-  </si>
-  <si>
-    <t>mobile.png</t>
-  </si>
-  <si>
-    <t>mvno.png</t>
-  </si>
-  <si>
-    <t>voice.png</t>
-  </si>
-  <si>
-    <t>nw.png</t>
-  </si>
-  <si>
-    <t>cloud.png</t>
-  </si>
-  <si>
-    <t>iot.png</t>
-  </si>
-  <si>
     <t>ロボット・AI</t>
-  </si>
-  <si>
-    <t>robotai.png</t>
-  </si>
-  <si>
-    <t>robot.png</t>
-  </si>
-  <si>
-    <t>ai.png</t>
-  </si>
-  <si>
-    <t>security.png</t>
-  </si>
-  <si>
-    <t>dmk.png</t>
-  </si>
-  <si>
-    <t>pepper.png</t>
-  </si>
-  <si>
-    <t>rpa.png</t>
-  </si>
-  <si>
-    <t>vr_ar.png</t>
-  </si>
-  <si>
-    <t>other.png</t>
   </si>
   <si>
     <t>競合企業動向</t>
@@ -137,6 +86,10 @@
   </si>
   <si>
     <t>カテゴリアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_icon.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,7 +451,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,10 +462,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,15 +473,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,15 +529,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -608,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -648,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
